--- a/Google Form Automation/students.xlsx
+++ b/Google Form Automation/students.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fa64dd19eec5cd8/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_BF6ABFC497D9AECF8A160B704B50E6977288E385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4B7F9BB-423D-4808-B372-4778713B6207}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -28,245 +34,245 @@
     <t>Year of Study</t>
   </si>
   <si>
-    <t>Student 1</t>
-  </si>
-  <si>
-    <t>Student 2</t>
-  </si>
-  <si>
-    <t>Student 3</t>
-  </si>
-  <si>
-    <t>Student 4</t>
-  </si>
-  <si>
-    <t>Student 5</t>
-  </si>
-  <si>
-    <t>Student 6</t>
-  </si>
-  <si>
-    <t>Student 7</t>
-  </si>
-  <si>
-    <t>Student 8</t>
-  </si>
-  <si>
-    <t>Student 9</t>
-  </si>
-  <si>
-    <t>Student 10</t>
-  </si>
-  <si>
-    <t>Student 11</t>
-  </si>
-  <si>
-    <t>Student 12</t>
-  </si>
-  <si>
-    <t>Student 13</t>
-  </si>
-  <si>
-    <t>Student 14</t>
-  </si>
-  <si>
-    <t>Student 15</t>
-  </si>
-  <si>
-    <t>Student 16</t>
-  </si>
-  <si>
-    <t>Student 17</t>
-  </si>
-  <si>
-    <t>Student 18</t>
-  </si>
-  <si>
-    <t>Student 19</t>
-  </si>
-  <si>
-    <t>Student 20</t>
-  </si>
-  <si>
-    <t>Student 21</t>
-  </si>
-  <si>
-    <t>Student 22</t>
-  </si>
-  <si>
-    <t>Student 23</t>
-  </si>
-  <si>
-    <t>Student 24</t>
-  </si>
-  <si>
-    <t>Student 25</t>
-  </si>
-  <si>
-    <t>student1@example.com</t>
-  </si>
-  <si>
-    <t>student2@example.com</t>
-  </si>
-  <si>
-    <t>student3@example.com</t>
-  </si>
-  <si>
-    <t>student4@example.com</t>
-  </si>
-  <si>
-    <t>student5@example.com</t>
-  </si>
-  <si>
-    <t>student6@example.com</t>
-  </si>
-  <si>
-    <t>student7@example.com</t>
-  </si>
-  <si>
-    <t>student8@example.com</t>
-  </si>
-  <si>
-    <t>student9@example.com</t>
-  </si>
-  <si>
-    <t>student10@example.com</t>
-  </si>
-  <si>
-    <t>student11@example.com</t>
-  </si>
-  <si>
-    <t>student12@example.com</t>
-  </si>
-  <si>
-    <t>student13@example.com</t>
-  </si>
-  <si>
-    <t>student14@example.com</t>
-  </si>
-  <si>
-    <t>student15@example.com</t>
-  </si>
-  <si>
-    <t>student16@example.com</t>
-  </si>
-  <si>
-    <t>student17@example.com</t>
-  </si>
-  <si>
-    <t>student18@example.com</t>
-  </si>
-  <si>
-    <t>student19@example.com</t>
-  </si>
-  <si>
-    <t>student20@example.com</t>
-  </si>
-  <si>
-    <t>student21@example.com</t>
-  </si>
-  <si>
-    <t>student22@example.com</t>
-  </si>
-  <si>
-    <t>student23@example.com</t>
-  </si>
-  <si>
-    <t>student24@example.com</t>
-  </si>
-  <si>
-    <t>student25@example.com</t>
-  </si>
-  <si>
-    <t>9473783073</t>
-  </si>
-  <si>
-    <t>9270540632</t>
-  </si>
-  <si>
-    <t>9809522375</t>
-  </si>
-  <si>
-    <t>9549532035</t>
-  </si>
-  <si>
-    <t>9390699590</t>
-  </si>
-  <si>
-    <t>9752760691</t>
-  </si>
-  <si>
-    <t>9837959364</t>
-  </si>
-  <si>
-    <t>9506753698</t>
-  </si>
-  <si>
-    <t>9666224663</t>
-  </si>
-  <si>
-    <t>9868042252</t>
-  </si>
-  <si>
-    <t>9891661439</t>
-  </si>
-  <si>
-    <t>9969165118</t>
-  </si>
-  <si>
-    <t>9669553609</t>
-  </si>
-  <si>
-    <t>9764173707</t>
-  </si>
-  <si>
-    <t>9916982914</t>
-  </si>
-  <si>
-    <t>9564928636</t>
-  </si>
-  <si>
-    <t>9392140078</t>
-  </si>
-  <si>
-    <t>9322672174</t>
-  </si>
-  <si>
-    <t>9445068958</t>
-  </si>
-  <si>
-    <t>9449268275</t>
-  </si>
-  <si>
-    <t>9810765835</t>
-  </si>
-  <si>
-    <t>9124321265</t>
-  </si>
-  <si>
-    <t>9802660525</t>
-  </si>
-  <si>
-    <t>9881926296</t>
-  </si>
-  <si>
-    <t>9814501508</t>
+    <t>Norma Fisher</t>
+  </si>
+  <si>
+    <t>Jorge Sullivan</t>
+  </si>
+  <si>
+    <t>Elizabeth Woods</t>
+  </si>
+  <si>
+    <t>Susan Wagner</t>
+  </si>
+  <si>
+    <t>Peter Montgomery</t>
+  </si>
+  <si>
+    <t>Theodore Mcgrath</t>
+  </si>
+  <si>
+    <t>Stephanie Collins</t>
+  </si>
+  <si>
+    <t>Stephanie Sutton</t>
+  </si>
+  <si>
+    <t>Brian Hamilton</t>
+  </si>
+  <si>
+    <t>Susan Levy</t>
+  </si>
+  <si>
+    <t>Sean Green</t>
+  </si>
+  <si>
+    <t>Kimberly Smith</t>
+  </si>
+  <si>
+    <t>Jennifer Summers</t>
+  </si>
+  <si>
+    <t>April Snyder</t>
+  </si>
+  <si>
+    <t>Dana Nguyen</t>
+  </si>
+  <si>
+    <t>Cheryl Bradley</t>
+  </si>
+  <si>
+    <t>Walter Pratt</t>
+  </si>
+  <si>
+    <t>Bobby Flores</t>
+  </si>
+  <si>
+    <t>Tasha Rodriguez</t>
+  </si>
+  <si>
+    <t>Michelle Kelley</t>
+  </si>
+  <si>
+    <t>Kimberly Maynard</t>
+  </si>
+  <si>
+    <t>Laurie Wallace</t>
+  </si>
+  <si>
+    <t>Janice Johnston</t>
+  </si>
+  <si>
+    <t>Collin Lopez</t>
+  </si>
+  <si>
+    <t>Mary Alvarez</t>
+  </si>
+  <si>
+    <t>norma.fisher@example.com</t>
+  </si>
+  <si>
+    <t>jorge.sullivan@example.com</t>
+  </si>
+  <si>
+    <t>elizabeth.woods@example.com</t>
+  </si>
+  <si>
+    <t>susan.wagner@example.com</t>
+  </si>
+  <si>
+    <t>peter.montgomery@example.com</t>
+  </si>
+  <si>
+    <t>theodore.mcgrath@example.com</t>
+  </si>
+  <si>
+    <t>stephanie.collins@example.com</t>
+  </si>
+  <si>
+    <t>stephanie.sutton@example.com</t>
+  </si>
+  <si>
+    <t>brian.hamilton@example.com</t>
+  </si>
+  <si>
+    <t>susan.levy@example.com</t>
+  </si>
+  <si>
+    <t>sean.green@example.com</t>
+  </si>
+  <si>
+    <t>kimberly.smith@example.com</t>
+  </si>
+  <si>
+    <t>jennifer.summers@example.com</t>
+  </si>
+  <si>
+    <t>april.snyder@example.com</t>
+  </si>
+  <si>
+    <t>dana.nguyen@example.com</t>
+  </si>
+  <si>
+    <t>cheryl.bradley@example.com</t>
+  </si>
+  <si>
+    <t>walter.pratt@example.com</t>
+  </si>
+  <si>
+    <t>bobby.flores@example.com</t>
+  </si>
+  <si>
+    <t>tasha.rodriguez@example.com</t>
+  </si>
+  <si>
+    <t>michelle.kelley@example.com</t>
+  </si>
+  <si>
+    <t>kimberly.maynard@example.com</t>
+  </si>
+  <si>
+    <t>laurie.wallace@example.com</t>
+  </si>
+  <si>
+    <t>janice.johnston@example.com</t>
+  </si>
+  <si>
+    <t>collin.lopez@example.com</t>
+  </si>
+  <si>
+    <t>mary.alvarez@example.com</t>
+  </si>
+  <si>
+    <t>9660487647</t>
+  </si>
+  <si>
+    <t>9938242194</t>
+  </si>
+  <si>
+    <t>9924115781</t>
+  </si>
+  <si>
+    <t>9659387784</t>
+  </si>
+  <si>
+    <t>9801609753</t>
+  </si>
+  <si>
+    <t>9513933287</t>
+  </si>
+  <si>
+    <t>9158714841</t>
+  </si>
+  <si>
+    <t>9583989471</t>
+  </si>
+  <si>
+    <t>9659342320</t>
+  </si>
+  <si>
+    <t>9471122018</t>
+  </si>
+  <si>
+    <t>9684833969</t>
+  </si>
+  <si>
+    <t>9775159179</t>
+  </si>
+  <si>
+    <t>9533041352</t>
+  </si>
+  <si>
+    <t>9601230989</t>
+  </si>
+  <si>
+    <t>9101399161</t>
+  </si>
+  <si>
+    <t>9109032173</t>
+  </si>
+  <si>
+    <t>9008691413</t>
+  </si>
+  <si>
+    <t>9456208709</t>
+  </si>
+  <si>
+    <t>9634579230</t>
+  </si>
+  <si>
+    <t>9225841972</t>
+  </si>
+  <si>
+    <t>9769845642</t>
+  </si>
+  <si>
+    <t>9071508423</t>
+  </si>
+  <si>
+    <t>9594599246</t>
+  </si>
+  <si>
+    <t>9610935233</t>
+  </si>
+  <si>
+    <t>9769606960</t>
   </si>
   <si>
     <t>Third Year</t>
   </si>
   <si>
+    <t>Final Year</t>
+  </si>
+  <si>
     <t>Second Year</t>
-  </si>
-  <si>
-    <t>Final Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,13 +335,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -373,7 +387,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -407,6 +421,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -441,9 +456,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -616,14 +632,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,7 +661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -651,7 +675,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -665,7 +689,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -676,10 +700,10 @@
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -690,10 +714,10 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -707,7 +731,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -718,10 +742,10 @@
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -732,10 +756,10 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -746,10 +770,10 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -760,10 +784,10 @@
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -774,10 +798,10 @@
         <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -791,7 +815,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -802,10 +826,10 @@
         <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -816,10 +840,10 @@
         <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -830,10 +854,10 @@
         <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -844,10 +868,10 @@
         <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -858,10 +882,10 @@
         <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -872,10 +896,10 @@
         <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -886,10 +910,10 @@
         <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -900,10 +924,10 @@
         <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -914,10 +938,10 @@
         <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -931,7 +955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -945,7 +969,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -959,7 +983,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -973,7 +997,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -984,7 +1008,7 @@
         <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
